--- a/DGP2.xlsx
+++ b/DGP2.xlsx
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.892</v>
+        <v>0.894</v>
       </c>
       <c r="G2" t="n">
-        <v>0.929</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="3">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.879</v>
+        <v>0.8855</v>
       </c>
       <c r="G3" t="n">
-        <v>0.926</v>
+        <v>0.9275</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.895</v>
+        <v>0.893</v>
       </c>
       <c r="G4" t="n">
-        <v>0.932</v>
+        <v>0.9275</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.884</v>
+        <v>0.886</v>
       </c>
       <c r="G5" t="n">
-        <v>0.928</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.889</v>
+        <v>0.89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.937</v>
+        <v>0.934</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.898</v>
+        <v>0.8935</v>
       </c>
       <c r="G7" t="n">
-        <v>0.924</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.893</v>
+        <v>0.8875</v>
       </c>
       <c r="G8" t="n">
-        <v>0.926</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.871</v>
+        <v>0.872</v>
       </c>
       <c r="G9" t="n">
-        <v>0.913</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.884</v>
+        <v>0.8725</v>
       </c>
       <c r="G10" t="n">
-        <v>0.929</v>
+        <v>0.9265</v>
       </c>
     </row>
     <row r="11">
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.873</v>
+        <v>0.8745</v>
       </c>
       <c r="G11" t="n">
-        <v>0.913</v>
+        <v>0.9125</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>28.8929774451078</v>
+        <v>28.7071315422293</v>
       </c>
       <c r="G12" t="n">
-        <v>27.7609910852065</v>
+        <v>27.480100771841</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>29.2454701095185</v>
+        <v>29.1031889415406</v>
       </c>
       <c r="G13" t="n">
-        <v>28.2077889269263</v>
+        <v>27.9923023835611</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>29.2351360953719</v>
+        <v>29.1377931735202</v>
       </c>
       <c r="G14" t="n">
-        <v>28.4100862043197</v>
+        <v>28.1822232459956</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>29.3814948098954</v>
+        <v>29.2606022382361</v>
       </c>
       <c r="G15" t="n">
-        <v>28.4793841742686</v>
+        <v>28.2256963773255</v>
       </c>
     </row>
     <row r="16">
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>29.2433326154499</v>
+        <v>29.1344557214741</v>
       </c>
       <c r="G16" t="n">
-        <v>28.7187438437626</v>
+        <v>28.532279704317</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>29.4614913380811</v>
+        <v>29.2177644276875</v>
       </c>
       <c r="G17" t="n">
-        <v>28.6953665551807</v>
+        <v>28.5260612780428</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>29.4856872651299</v>
+        <v>29.1886983477273</v>
       </c>
       <c r="G18" t="n">
-        <v>28.728573017819</v>
+        <v>28.3965298038472</v>
       </c>
     </row>
     <row r="19">
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>29.5745630259224</v>
+        <v>29.2996005872395</v>
       </c>
       <c r="G19" t="n">
-        <v>28.6752361911372</v>
+        <v>28.4517171659858</v>
       </c>
     </row>
     <row r="20">
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>29.3992123877367</v>
+        <v>29.1156637789543</v>
       </c>
       <c r="G20" t="n">
-        <v>28.7750491036921</v>
+        <v>28.472478411892</v>
       </c>
     </row>
     <row r="21">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>29.5395133617512</v>
+        <v>29.250801822417</v>
       </c>
       <c r="G21" t="n">
-        <v>28.8025572505811</v>
+        <v>28.5048759123412</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>69.4066944301409</v>
+        <v>71.1228354168561</v>
       </c>
       <c r="G22" t="n">
-        <v>36.0235094560593</v>
+        <v>37.6265838438701</v>
       </c>
     </row>
     <row r="23">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>77.3205600277829</v>
+        <v>74.4411076658598</v>
       </c>
       <c r="G23" t="n">
-        <v>40.8548719383583</v>
+        <v>39.1167367556233</v>
       </c>
     </row>
     <row r="24">
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>83.096062673041</v>
+        <v>79.6514427286261</v>
       </c>
       <c r="G24" t="n">
-        <v>43.5092827090681</v>
+        <v>42.0143380920817</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>81.9906232918352</v>
+        <v>79.5441955213838</v>
       </c>
       <c r="G25" t="n">
-        <v>43.7536627644459</v>
+        <v>42.0043453774089</v>
       </c>
     </row>
     <row r="26">
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>81.2885930520156</v>
+        <v>83.5599312244877</v>
       </c>
       <c r="G26" t="n">
-        <v>40.9657417675496</v>
+        <v>43.4680910714152</v>
       </c>
     </row>
     <row r="27">
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>78.6757153866857</v>
+        <v>81.5928073646983</v>
       </c>
       <c r="G27" t="n">
-        <v>42.2139358220934</v>
+        <v>44.0132298652351</v>
       </c>
     </row>
     <row r="28">
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>87.0459308383351</v>
+        <v>87.3806630064993</v>
       </c>
       <c r="G28" t="n">
-        <v>46.6255198048642</v>
+        <v>47.1403426601377</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>90.3638443398165</v>
+        <v>88.4618224636086</v>
       </c>
       <c r="G29" t="n">
-        <v>48.4562296443643</v>
+        <v>47.4932555660763</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>88.6197248989955</v>
+        <v>88.2898927242422</v>
       </c>
       <c r="G30" t="n">
-        <v>49.2786195008909</v>
+        <v>48.3566537329376</v>
       </c>
     </row>
     <row r="31">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>91.6993220690717</v>
+        <v>88.6781031901496</v>
       </c>
       <c r="G31" t="n">
-        <v>50.2972381699951</v>
+        <v>48.7937718604028</v>
       </c>
     </row>
     <row r="32">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>5.206172941638</v>
+        <v>5.38848733512673</v>
       </c>
       <c r="G32" t="n">
-        <v>3.04461651918932</v>
+        <v>3.27090708152366</v>
       </c>
     </row>
     <row r="33">
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>5.52111721307327</v>
+        <v>5.59804306240658</v>
       </c>
       <c r="G33" t="n">
-        <v>3.24411176532834</v>
+        <v>3.3089418718146</v>
       </c>
     </row>
     <row r="34">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>6.0485703246609</v>
+        <v>5.87251963742658</v>
       </c>
       <c r="G34" t="n">
-        <v>3.56750848425539</v>
+        <v>3.46691399594377</v>
       </c>
     </row>
     <row r="35">
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>5.69790101171529</v>
+        <v>5.68226151737317</v>
       </c>
       <c r="G35" t="n">
-        <v>3.55694817283435</v>
+        <v>3.49896812678683</v>
       </c>
     </row>
     <row r="36">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>5.90784580251391</v>
+        <v>5.76261517243833</v>
       </c>
       <c r="G36" t="n">
-        <v>3.39442411836465</v>
+        <v>3.41735020318926</v>
       </c>
     </row>
     <row r="37">
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>5.36179800551062</v>
+        <v>5.46361054908694</v>
       </c>
       <c r="G37" t="n">
-        <v>3.27520054334866</v>
+        <v>3.21864561215507</v>
       </c>
     </row>
     <row r="38">
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>5.91640489339345</v>
+        <v>5.92860267461262</v>
       </c>
       <c r="G38" t="n">
-        <v>3.62724204670316</v>
+        <v>3.54626379582036</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>5.78291580689178</v>
+        <v>5.90253583685431</v>
       </c>
       <c r="G39" t="n">
-        <v>3.62375886965332</v>
+        <v>3.59872968214031</v>
       </c>
     </row>
     <row r="40">
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>5.34945317377738</v>
+        <v>5.73193325377215</v>
       </c>
       <c r="G40" t="n">
-        <v>3.45308131207478</v>
+        <v>3.4704000164771</v>
       </c>
     </row>
     <row r="41">
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>5.87405394654527</v>
+        <v>5.87882189665306</v>
       </c>
       <c r="G41" t="n">
-        <v>3.63326299393392</v>
+        <v>3.57797148708399</v>
       </c>
     </row>
     <row r="42">
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.935</v>
+        <v>0.9095</v>
       </c>
       <c r="G42" t="n">
-        <v>0.969</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="43">
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.915</v>
+        <v>0.9165</v>
       </c>
       <c r="G43" t="n">
-        <v>0.954</v>
+        <v>0.9595</v>
       </c>
     </row>
     <row r="44">
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.929</v>
+        <v>0.9035</v>
       </c>
       <c r="G44" t="n">
-        <v>0.959</v>
+        <v>0.9475</v>
       </c>
     </row>
     <row r="45">
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.919</v>
+        <v>0.899</v>
       </c>
       <c r="G45" t="n">
-        <v>0.967</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="46">
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.919</v>
+        <v>0.903</v>
       </c>
       <c r="G46" t="n">
-        <v>0.96</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="47">
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.919</v>
+        <v>0.8955</v>
       </c>
       <c r="G47" t="n">
-        <v>0.962</v>
+        <v>0.9415</v>
       </c>
     </row>
     <row r="48">
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.904</v>
+        <v>0.891</v>
       </c>
       <c r="G48" t="n">
-        <v>0.944</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="49">
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.91</v>
+        <v>0.9045</v>
       </c>
       <c r="G49" t="n">
-        <v>0.952</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="50">
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.889</v>
+        <v>0.9035</v>
       </c>
       <c r="G50" t="n">
-        <v>0.95</v>
+        <v>0.9445</v>
       </c>
     </row>
     <row r="51">
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.891</v>
+        <v>0.9155</v>
       </c>
       <c r="G51" t="n">
-        <v>0.94</v>
+        <v>0.9565</v>
       </c>
     </row>
     <row r="52">
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>29.606389140387</v>
+        <v>29.3147843946086</v>
       </c>
       <c r="G52" t="n">
-        <v>27.0060177077937</v>
+        <v>26.9327056398759</v>
       </c>
     </row>
     <row r="53">
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>29.6939626179002</v>
+        <v>29.5106624095728</v>
       </c>
       <c r="G53" t="n">
-        <v>27.4912601850318</v>
+        <v>27.1264843358214</v>
       </c>
     </row>
     <row r="54">
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>29.8479544751092</v>
+        <v>29.6438030941443</v>
       </c>
       <c r="G54" t="n">
-        <v>27.7355288418939</v>
+        <v>27.4918013061926</v>
       </c>
     </row>
     <row r="55">
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>29.9124971264469</v>
+        <v>29.6123326718966</v>
       </c>
       <c r="G55" t="n">
-        <v>28.0815769653188</v>
+        <v>27.643179113399</v>
       </c>
     </row>
     <row r="56">
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>30.1184699692986</v>
+        <v>29.5873253369024</v>
       </c>
       <c r="G56" t="n">
-        <v>28.2064866136707</v>
+        <v>27.6349285275689</v>
       </c>
     </row>
     <row r="57">
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>30.1288577895944</v>
+        <v>29.6888225130515</v>
       </c>
       <c r="G57" t="n">
-        <v>28.0299470359554</v>
+        <v>27.6463435703943</v>
       </c>
     </row>
     <row r="58">
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>30.0161710987472</v>
+        <v>29.6734752595224</v>
       </c>
       <c r="G58" t="n">
-        <v>28.2297410832287</v>
+        <v>27.6779103651072</v>
       </c>
     </row>
     <row r="59">
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>30.1553193188175</v>
+        <v>29.7400495354701</v>
       </c>
       <c r="G59" t="n">
-        <v>28.1577074557372</v>
+        <v>27.7342492102449</v>
       </c>
     </row>
     <row r="60">
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>30.2262214900999</v>
+        <v>29.657002563159</v>
       </c>
       <c r="G60" t="n">
-        <v>28.1018306460626</v>
+        <v>27.6288350604982</v>
       </c>
     </row>
     <row r="61">
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>30.1721917905023</v>
+        <v>29.8790388829795</v>
       </c>
       <c r="G61" t="n">
-        <v>28.1819440890805</v>
+        <v>27.7753589343449</v>
       </c>
     </row>
     <row r="62">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>66.4215408282539</v>
+        <v>70.5020504723248</v>
       </c>
       <c r="G62" t="n">
-        <v>26.5876798405076</v>
+        <v>28.9009365581474</v>
       </c>
     </row>
     <row r="63">
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>74.7397460957281</v>
+        <v>69.1568018059286</v>
       </c>
       <c r="G63" t="n">
-        <v>31.3332149219724</v>
+        <v>27.6877949938035</v>
       </c>
     </row>
     <row r="64">
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>73.0153613049157</v>
+        <v>77.4294010526041</v>
       </c>
       <c r="G64" t="n">
-        <v>31.318879999072</v>
+        <v>31.9741195256663</v>
       </c>
     </row>
     <row r="65">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>71.7006352594716</v>
+        <v>79.1624432012287</v>
       </c>
       <c r="G65" t="n">
-        <v>30.6759483369551</v>
+        <v>33.2622166913035</v>
       </c>
     </row>
     <row r="66">
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>73.7836456453892</v>
+        <v>80.9164540013692</v>
       </c>
       <c r="G66" t="n">
-        <v>31.1076593900454</v>
+        <v>33.7079794827741</v>
       </c>
     </row>
     <row r="67">
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>76.1494144913482</v>
+        <v>80.0695037676207</v>
       </c>
       <c r="G67" t="n">
-        <v>31.6271052797405</v>
+        <v>34.247349972208</v>
       </c>
     </row>
     <row r="68">
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>84.4892151872419</v>
+        <v>85.1423916043169</v>
       </c>
       <c r="G68" t="n">
-        <v>35.9197033655331</v>
+        <v>36.2192114923492</v>
       </c>
     </row>
     <row r="69">
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>81.3548699641985</v>
+        <v>81.1165063969411</v>
       </c>
       <c r="G69" t="n">
-        <v>34.0466644930842</v>
+        <v>34.4890337573668</v>
       </c>
     </row>
     <row r="70">
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>88.694096501554</v>
+        <v>81.5148274777625</v>
       </c>
       <c r="G70" t="n">
-        <v>37.0086746963343</v>
+        <v>34.4907293684992</v>
       </c>
     </row>
     <row r="71">
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>93.4924709491414</v>
+        <v>78.5301998741656</v>
       </c>
       <c r="G71" t="n">
-        <v>39.4512589857568</v>
+        <v>33.2035313620444</v>
       </c>
     </row>
     <row r="72">
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>5.15115019274404</v>
+        <v>5.39731219840753</v>
       </c>
       <c r="G72" t="n">
-        <v>2.88575358884023</v>
+        <v>2.85535114421113</v>
       </c>
     </row>
     <row r="73">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>5.40308279358478</v>
+        <v>5.38061014220525</v>
       </c>
       <c r="G73" t="n">
-        <v>2.9918547650828</v>
+        <v>2.75194122992526</v>
       </c>
     </row>
     <row r="74">
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>5.04549375759608</v>
+        <v>5.46510523884205</v>
       </c>
       <c r="G74" t="n">
-        <v>2.95459779839822</v>
+        <v>2.77874035352805</v>
       </c>
     </row>
     <row r="75">
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>5.58426944843838</v>
+        <v>5.47319616426469</v>
       </c>
       <c r="G75" t="n">
-        <v>3.00819963496015</v>
+        <v>2.83301994063274</v>
       </c>
     </row>
     <row r="76">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>5.47883389472186</v>
+        <v>5.70323045160827</v>
       </c>
       <c r="G76" t="n">
-        <v>2.95908432983478</v>
+        <v>2.98716752021537</v>
       </c>
     </row>
     <row r="77">
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>5.25921704697046</v>
+        <v>5.487933929874</v>
       </c>
       <c r="G77" t="n">
-        <v>2.92680017635682</v>
+        <v>2.88262744907287</v>
       </c>
     </row>
     <row r="78">
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>6.00631210113081</v>
+        <v>5.83006656051912</v>
       </c>
       <c r="G78" t="n">
-        <v>3.24681276268513</v>
+        <v>3.04524236385411</v>
       </c>
     </row>
     <row r="79">
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>5.78463390327813</v>
+        <v>5.66726191763129</v>
       </c>
       <c r="G79" t="n">
-        <v>3.06932570931972</v>
+        <v>2.95778215896581</v>
       </c>
     </row>
     <row r="80">
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>5.94512566019611</v>
+        <v>5.70306213848454</v>
       </c>
       <c r="G80" t="n">
-        <v>3.00029754300506</v>
+        <v>2.94513580870782</v>
       </c>
     </row>
     <row r="81">
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>6.09940683456928</v>
+        <v>5.49032774068397</v>
       </c>
       <c r="G81" t="n">
-        <v>3.03445586423016</v>
+        <v>2.8888293736211</v>
       </c>
     </row>
     <row r="82">
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.911</v>
+        <v>0.9075</v>
       </c>
       <c r="G82" t="n">
-        <v>0.947</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="83">
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.913</v>
+        <v>0.9005</v>
       </c>
       <c r="G83" t="n">
-        <v>0.938</v>
+        <v>0.9355</v>
       </c>
     </row>
     <row r="84">
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.901</v>
+        <v>0.902</v>
       </c>
       <c r="G84" t="n">
-        <v>0.927</v>
+        <v>0.9305</v>
       </c>
     </row>
     <row r="85">
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.885</v>
+        <v>0.8875</v>
       </c>
       <c r="G85" t="n">
-        <v>0.919</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="86">
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.88</v>
+        <v>0.8885</v>
       </c>
       <c r="G86" t="n">
-        <v>0.914</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="87">
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.881</v>
+        <v>0.8855</v>
       </c>
       <c r="G87" t="n">
-        <v>0.915</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="88">
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.882</v>
+        <v>0.8885</v>
       </c>
       <c r="G88" t="n">
-        <v>0.914</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="89">
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.89</v>
+        <v>0.8865</v>
       </c>
       <c r="G89" t="n">
-        <v>0.919</v>
+        <v>0.9225</v>
       </c>
     </row>
     <row r="90">
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.898</v>
+        <v>0.8935</v>
       </c>
       <c r="G90" t="n">
-        <v>0.929</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="91">
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.904</v>
+        <v>0.894</v>
       </c>
       <c r="G91" t="n">
-        <v>0.929</v>
+        <v>0.9265</v>
       </c>
     </row>
     <row r="92">
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>28.9934410017847</v>
+        <v>28.6287529225251</v>
       </c>
       <c r="G92" t="n">
-        <v>27.8497876072306</v>
+        <v>27.5636977955879</v>
       </c>
     </row>
     <row r="93">
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>29.1657029027026</v>
+        <v>28.9125263529719</v>
       </c>
       <c r="G93" t="n">
-        <v>28.3763337467681</v>
+        <v>28.147469228781</v>
       </c>
     </row>
     <row r="94">
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>29.534910941835</v>
+        <v>29.2590792697055</v>
       </c>
       <c r="G94" t="n">
-        <v>28.5107806938749</v>
+        <v>28.2964719909459</v>
       </c>
     </row>
     <row r="95">
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>29.4568480403062</v>
+        <v>29.1461653085998</v>
       </c>
       <c r="G95" t="n">
-        <v>28.5559442293266</v>
+        <v>28.3082826006016</v>
       </c>
     </row>
     <row r="96">
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>29.4164347726069</v>
+        <v>29.1399630526537</v>
       </c>
       <c r="G96" t="n">
-        <v>28.7511352790375</v>
+        <v>28.4119782646616</v>
       </c>
     </row>
     <row r="97">
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>29.5562831407323</v>
+        <v>29.2775167084799</v>
       </c>
       <c r="G97" t="n">
-        <v>28.7453685510927</v>
+        <v>28.4677689183552</v>
       </c>
     </row>
     <row r="98">
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>29.6064770221163</v>
+        <v>29.3441558037383</v>
       </c>
       <c r="G98" t="n">
-        <v>28.8959236820881</v>
+        <v>28.6366693814801</v>
       </c>
     </row>
     <row r="99">
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>29.4943558349153</v>
+        <v>29.2933575843685</v>
       </c>
       <c r="G99" t="n">
-        <v>28.8824242313852</v>
+        <v>28.5906564487339</v>
       </c>
     </row>
     <row r="100">
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>29.4755690720778</v>
+        <v>29.3182623910731</v>
       </c>
       <c r="G100" t="n">
-        <v>28.6955861735303</v>
+        <v>28.4776430834863</v>
       </c>
     </row>
     <row r="101">
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>29.5854417444468</v>
+        <v>29.2330949459111</v>
       </c>
       <c r="G101" t="n">
-        <v>28.807269812707</v>
+        <v>28.5112902743519</v>
       </c>
     </row>
     <row r="102">
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>66.0112119903759</v>
+        <v>63.7627006955382</v>
       </c>
       <c r="G102" t="n">
-        <v>35.2355037590082</v>
+        <v>34.8650872445058</v>
       </c>
     </row>
     <row r="103">
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>72.7351298281413</v>
+        <v>72.3541462729714</v>
       </c>
       <c r="G103" t="n">
-        <v>40.3944061559313</v>
+        <v>40.1007790233363</v>
       </c>
     </row>
     <row r="104">
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>80.2291139569015</v>
+        <v>76.0443086728157</v>
       </c>
       <c r="G104" t="n">
-        <v>45.9523613979654</v>
+        <v>43.0850132158592</v>
       </c>
     </row>
     <row r="105">
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>85.2115860810544</v>
+        <v>81.4756399022775</v>
       </c>
       <c r="G105" t="n">
-        <v>48.5466201595492</v>
+        <v>45.9814306019562</v>
       </c>
     </row>
     <row r="106">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>89.2812713123874</v>
+        <v>84.4071194309074</v>
       </c>
       <c r="G106" t="n">
-        <v>51.5515796333188</v>
+        <v>47.7887634980773</v>
       </c>
     </row>
     <row r="107">
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>89.2492634022696</v>
+        <v>82.9945589282012</v>
       </c>
       <c r="G107" t="n">
-        <v>51.0583880448847</v>
+        <v>46.8189532934403</v>
       </c>
     </row>
     <row r="108">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>88.6758290452573</v>
+        <v>85.4421636605101</v>
       </c>
       <c r="G108" t="n">
-        <v>52.3720577154736</v>
+        <v>49.1939024052462</v>
       </c>
     </row>
     <row r="109">
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>89.1250298916171</v>
+        <v>83.9516069631503</v>
       </c>
       <c r="G109" t="n">
-        <v>52.3253286558647</v>
+        <v>47.906930163608</v>
       </c>
     </row>
     <row r="110">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>81.2346541979105</v>
+        <v>81.9225044305456</v>
       </c>
       <c r="G110" t="n">
-        <v>45.2180754389797</v>
+        <v>46.5617055056159</v>
       </c>
     </row>
     <row r="111">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>82.6527828452447</v>
+        <v>80.8465726318235</v>
       </c>
       <c r="G111" t="n">
-        <v>47.2238595659374</v>
+        <v>46.4702508238186</v>
       </c>
     </row>
     <row r="112">
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>5.1161995104991</v>
+        <v>5.06687145839511</v>
       </c>
       <c r="G112" t="n">
-        <v>3.29012979229334</v>
+        <v>3.28347530004882</v>
       </c>
     </row>
     <row r="113">
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>5.26105947796312</v>
+        <v>5.42394915668987</v>
       </c>
       <c r="G113" t="n">
-        <v>3.33623865186986</v>
+        <v>3.42254742650608</v>
       </c>
     </row>
     <row r="114">
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>5.53896240640668</v>
+        <v>5.46599578997782</v>
       </c>
       <c r="G114" t="n">
-        <v>3.5595413106738</v>
+        <v>3.42083127797975</v>
       </c>
     </row>
     <row r="115">
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>5.79927195520597</v>
+        <v>5.63770805202214</v>
       </c>
       <c r="G115" t="n">
-        <v>3.5529510341931</v>
+        <v>3.5051684764924</v>
       </c>
     </row>
     <row r="116">
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>5.47230849765337</v>
+        <v>5.68973401130058</v>
       </c>
       <c r="G116" t="n">
-        <v>3.51973884268662</v>
+        <v>3.56439482339545</v>
       </c>
     </row>
     <row r="117">
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>5.73553056280151</v>
+        <v>5.76836521522138</v>
       </c>
       <c r="G117" t="n">
-        <v>3.45543136537048</v>
+        <v>3.51488626132056</v>
       </c>
     </row>
     <row r="118">
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>5.62683501705796</v>
+        <v>5.81146077583688</v>
       </c>
       <c r="G118" t="n">
-        <v>3.5848527157381</v>
+        <v>3.55658331204283</v>
       </c>
     </row>
     <row r="119">
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>5.50014943209716</v>
+        <v>5.49367181755414</v>
       </c>
       <c r="G119" t="n">
-        <v>3.60578472171601</v>
+        <v>3.67798492106899</v>
       </c>
     </row>
     <row r="120">
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>5.47083712170142</v>
+        <v>5.58505277568073</v>
       </c>
       <c r="G120" t="n">
-        <v>3.55233187694547</v>
+        <v>3.63374376688609</v>
       </c>
     </row>
     <row r="121">
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>5.59672172182099</v>
+        <v>5.5478661318669</v>
       </c>
       <c r="G121" t="n">
-        <v>3.51219518379079</v>
+        <v>3.46758975740996</v>
       </c>
     </row>
     <row r="122">
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.929</v>
+        <v>0.9245</v>
       </c>
       <c r="G122" t="n">
-        <v>0.966</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="123">
@@ -3202,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.921</v>
+        <v>0.9095</v>
       </c>
       <c r="G123" t="n">
         <v>0.958</v>
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.924</v>
+        <v>0.9185</v>
       </c>
       <c r="G124" t="n">
-        <v>0.962</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="125">
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.934</v>
+        <v>0.9225</v>
       </c>
       <c r="G125" t="n">
-        <v>0.966</v>
+        <v>0.9595</v>
       </c>
     </row>
     <row r="126">
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.925</v>
+        <v>0.91</v>
       </c>
       <c r="G126" t="n">
-        <v>0.956</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="127">
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.919</v>
+        <v>0.911</v>
       </c>
       <c r="G127" t="n">
-        <v>0.955</v>
+        <v>0.9525</v>
       </c>
     </row>
     <row r="128">
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.931</v>
+        <v>0.9065</v>
       </c>
       <c r="G128" t="n">
-        <v>0.967</v>
+        <v>0.9505</v>
       </c>
     </row>
     <row r="129">
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.921</v>
+        <v>0.8955</v>
       </c>
       <c r="G129" t="n">
-        <v>0.956</v>
+        <v>0.9475</v>
       </c>
     </row>
     <row r="130">
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.904</v>
+        <v>0.8985</v>
       </c>
       <c r="G130" t="n">
-        <v>0.953</v>
+        <v>0.9435</v>
       </c>
     </row>
     <row r="131">
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.916</v>
+        <v>0.9055</v>
       </c>
       <c r="G131" t="n">
-        <v>0.959</v>
+        <v>0.9495</v>
       </c>
     </row>
     <row r="132">
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>30.1785236405154</v>
+        <v>29.5840787776874</v>
       </c>
       <c r="G132" t="n">
-        <v>27.8476403764308</v>
+        <v>27.2681362558696</v>
       </c>
     </row>
     <row r="133">
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>30.4244805666535</v>
+        <v>29.7543431683925</v>
       </c>
       <c r="G133" t="n">
-        <v>28.1555093153691</v>
+        <v>27.7638292787549</v>
       </c>
     </row>
     <row r="134">
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>30.380631825403</v>
+        <v>29.8438910027447</v>
       </c>
       <c r="G134" t="n">
-        <v>28.456071298052</v>
+        <v>27.9013025939244</v>
       </c>
     </row>
     <row r="135">
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>30.5533019871718</v>
+        <v>29.9476634371638</v>
       </c>
       <c r="G135" t="n">
-        <v>28.5548984494121</v>
+        <v>27.9925830152649</v>
       </c>
     </row>
     <row r="136">
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>30.7195897049762</v>
+        <v>30.0983690144281</v>
       </c>
       <c r="G136" t="n">
-        <v>28.5561640180713</v>
+        <v>28.0696832650555</v>
       </c>
     </row>
     <row r="137">
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>30.6450005641718</v>
+        <v>30.1288574396853</v>
       </c>
       <c r="G137" t="n">
-        <v>28.6525480238975</v>
+        <v>28.0886173839423</v>
       </c>
     </row>
     <row r="138">
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>30.7486436195472</v>
+        <v>29.99619599404</v>
       </c>
       <c r="G138" t="n">
-        <v>28.6394456003076</v>
+        <v>28.06588560005</v>
       </c>
     </row>
     <row r="139">
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>30.675959804472</v>
+        <v>29.9426871277976</v>
       </c>
       <c r="G139" t="n">
-        <v>28.5963178803294</v>
+        <v>28.1179151936047</v>
       </c>
     </row>
     <row r="140">
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>30.5876102357296</v>
+        <v>30.039818222937</v>
       </c>
       <c r="G140" t="n">
-        <v>28.6979619740372</v>
+        <v>28.0474477295697</v>
       </c>
     </row>
     <row r="141">
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>30.6020452084691</v>
+        <v>29.9765367819938</v>
       </c>
       <c r="G141" t="n">
-        <v>28.6972994751627</v>
+        <v>28.1071173103306</v>
       </c>
     </row>
     <row r="142">
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>67.744646857573</v>
+        <v>64.2065633615962</v>
       </c>
       <c r="G142" t="n">
-        <v>28.1726204393209</v>
+        <v>27.5101189869979</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>69.7448525392587</v>
+        <v>74.0849483473717</v>
       </c>
       <c r="G143" t="n">
-        <v>30.6796709910541</v>
+        <v>32.5223918580717</v>
       </c>
     </row>
     <row r="144">
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>70.2542663879781</v>
+        <v>71.420333128156</v>
       </c>
       <c r="G144" t="n">
-        <v>30.9694332058327</v>
+        <v>30.9633134895252</v>
       </c>
     </row>
     <row r="145">
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>70.2554969645271</v>
+        <v>73.6407672394036</v>
       </c>
       <c r="G145" t="n">
-        <v>30.0934877079785</v>
+        <v>31.8480218391807</v>
       </c>
     </row>
     <row r="146">
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>72.2119790341174</v>
+        <v>81.692396049999</v>
       </c>
       <c r="G146" t="n">
-        <v>31.4125167224505</v>
+        <v>36.2242967791822</v>
       </c>
     </row>
     <row r="147">
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>72.2188760731785</v>
+        <v>79.2944143312221</v>
       </c>
       <c r="G147" t="n">
-        <v>31.6042718989022</v>
+        <v>34.8040088616513</v>
       </c>
     </row>
     <row r="148">
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>71.8813506028519</v>
+        <v>80.3996477557609</v>
       </c>
       <c r="G148" t="n">
-        <v>30.2427744294163</v>
+        <v>35.7711430587203</v>
       </c>
     </row>
     <row r="149">
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>70.9510514057213</v>
+        <v>82.6711603011816</v>
       </c>
       <c r="G149" t="n">
-        <v>29.8725785674254</v>
+        <v>37.1612707322646</v>
       </c>
     </row>
     <row r="150">
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>76.8417892566506</v>
+        <v>85.7153992000119</v>
       </c>
       <c r="G150" t="n">
-        <v>34.0990229222636</v>
+        <v>39.0071495138492</v>
       </c>
     </row>
     <row r="151">
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>76.0845717045866</v>
+        <v>82.4942957547249</v>
       </c>
       <c r="G151" t="n">
-        <v>31.7154091827131</v>
+        <v>35.6013982950655</v>
       </c>
     </row>
     <row r="152">
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>5.15435067986995</v>
+        <v>5.06608765542902</v>
       </c>
       <c r="G152" t="n">
-        <v>2.86679625755155</v>
+        <v>2.89746301222981</v>
       </c>
     </row>
     <row r="153">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>5.19414255459489</v>
+        <v>5.24927186811245</v>
       </c>
       <c r="G153" t="n">
-        <v>2.98270453765317</v>
+        <v>2.9515433390218</v>
       </c>
     </row>
     <row r="154">
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>5.23868041517026</v>
+        <v>5.40833611362786</v>
       </c>
       <c r="G154" t="n">
-        <v>2.86567352974511</v>
+        <v>2.84270648459457</v>
       </c>
     </row>
     <row r="155">
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>5.3994956430493</v>
+        <v>5.54169772874347</v>
       </c>
       <c r="G155" t="n">
-        <v>2.90514661828349</v>
+        <v>2.91118750132613</v>
       </c>
     </row>
     <row r="156">
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>5.61996735302822</v>
+        <v>5.91214887170978</v>
       </c>
       <c r="G156" t="n">
-        <v>2.92914629597878</v>
+        <v>3.05375303105304</v>
       </c>
     </row>
     <row r="157">
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>5.22313943022554</v>
+        <v>5.39615374941147</v>
       </c>
       <c r="G157" t="n">
-        <v>2.78551347763173</v>
+        <v>2.92032077340967</v>
       </c>
     </row>
     <row r="158">
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>5.55777793032084</v>
+        <v>5.46927588410816</v>
       </c>
       <c r="G158" t="n">
-        <v>3.14729203898704</v>
+        <v>2.94591011465055</v>
       </c>
     </row>
     <row r="159">
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>5.57074936275578</v>
+        <v>5.61995577705413</v>
       </c>
       <c r="G159" t="n">
-        <v>2.93516844702641</v>
+        <v>2.9988446943269</v>
       </c>
     </row>
     <row r="160">
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>5.77100457816308</v>
+        <v>5.71563393870481</v>
       </c>
       <c r="G160" t="n">
-        <v>3.08411237114698</v>
+        <v>3.03190623502131</v>
       </c>
     </row>
     <row r="161">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>5.57684052460487</v>
+        <v>5.85473416337159</v>
       </c>
       <c r="G161" t="n">
-        <v>2.85954419798267</v>
+        <v>3.07504527271027</v>
       </c>
     </row>
   </sheetData>

--- a/DGP2.xlsx
+++ b/DGP2.xlsx
@@ -377,7 +377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/DGP2.xlsx
+++ b/DGP2.xlsx
@@ -407,10 +407,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.894</v>
+        <v>0.9095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.926</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8855</v>
+        <v>0.8995</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9275</v>
+        <v>0.943</v>
       </c>
     </row>
     <row r="4">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.893</v>
+        <v>0.9065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9275</v>
+        <v>0.9415</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.886</v>
+        <v>0.884</v>
       </c>
       <c r="G5" t="n">
-        <v>0.929</v>
+        <v>0.9355</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.89</v>
+        <v>0.891</v>
       </c>
       <c r="G6" t="n">
-        <v>0.934</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8935</v>
+        <v>0.895</v>
       </c>
       <c r="G7" t="n">
-        <v>0.923</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="8">
@@ -545,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8875</v>
+        <v>0.898</v>
       </c>
       <c r="G8" t="n">
-        <v>0.923</v>
+        <v>0.9395</v>
       </c>
     </row>
     <row r="9">
@@ -568,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.872</v>
+        <v>0.8905</v>
       </c>
       <c r="G9" t="n">
-        <v>0.912</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8725</v>
+        <v>0.893</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9265</v>
+        <v>0.9405</v>
       </c>
     </row>
     <row r="11">
@@ -614,10 +614,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8745</v>
+        <v>0.888</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9125</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>28.7071315422293</v>
+        <v>28.876841231199</v>
       </c>
       <c r="G12" t="n">
-        <v>27.480100771841</v>
+        <v>27.2040695895419</v>
       </c>
     </row>
     <row r="13">
@@ -660,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>29.1031889415406</v>
+        <v>29.1494428784995</v>
       </c>
       <c r="G13" t="n">
-        <v>27.9923023835611</v>
+        <v>27.6494147599538</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>29.1377931735202</v>
+        <v>29.2724447020153</v>
       </c>
       <c r="G14" t="n">
-        <v>28.1822232459956</v>
+        <v>27.8459141484303</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>29.2606022382361</v>
+        <v>29.1814408575576</v>
       </c>
       <c r="G15" t="n">
-        <v>28.2256963773255</v>
+        <v>27.8945316809912</v>
       </c>
     </row>
     <row r="16">
@@ -729,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>29.1344557214741</v>
+        <v>29.2779444618458</v>
       </c>
       <c r="G16" t="n">
-        <v>28.532279704317</v>
+        <v>27.9997593680049</v>
       </c>
     </row>
     <row r="17">
@@ -752,10 +752,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>29.2177644276875</v>
+        <v>29.2835167136986</v>
       </c>
       <c r="G17" t="n">
-        <v>28.5260612780428</v>
+        <v>28.0241275291862</v>
       </c>
     </row>
     <row r="18">
@@ -775,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>29.1886983477273</v>
+        <v>29.281752969609</v>
       </c>
       <c r="G18" t="n">
-        <v>28.3965298038472</v>
+        <v>28.0433571062377</v>
       </c>
     </row>
     <row r="19">
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>29.2996005872395</v>
+        <v>29.3562934147865</v>
       </c>
       <c r="G19" t="n">
-        <v>28.4517171659858</v>
+        <v>28.1517205376277</v>
       </c>
     </row>
     <row r="20">
@@ -821,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
         <v>9</v>
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>29.1156637789543</v>
+        <v>29.3849256793865</v>
       </c>
       <c r="G20" t="n">
-        <v>28.472478411892</v>
+        <v>28.0575172341936</v>
       </c>
     </row>
     <row r="21">
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>29.250801822417</v>
+        <v>29.4417327203755</v>
       </c>
       <c r="G21" t="n">
-        <v>28.5048759123412</v>
+        <v>28.187111839363</v>
       </c>
     </row>
     <row r="22">
@@ -867,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>71.1228354168561</v>
+        <v>70.329234999437</v>
       </c>
       <c r="G22" t="n">
-        <v>37.6265838438701</v>
+        <v>31.5739727012677</v>
       </c>
     </row>
     <row r="23">
@@ -890,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>74.4411076658598</v>
+        <v>78.5831155549037</v>
       </c>
       <c r="G23" t="n">
-        <v>39.1167367556233</v>
+        <v>35.8858876026995</v>
       </c>
     </row>
     <row r="24">
@@ -913,10 +913,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>79.6514427286261</v>
+        <v>77.203972001241</v>
       </c>
       <c r="G24" t="n">
-        <v>42.0143380920817</v>
+        <v>35.3278171599281</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>79.5441955213838</v>
+        <v>82.2745857549779</v>
       </c>
       <c r="G25" t="n">
-        <v>42.0043453774089</v>
+        <v>38.8347835581777</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>83.5599312244877</v>
+        <v>80.4787310168657</v>
       </c>
       <c r="G26" t="n">
-        <v>43.4680910714152</v>
+        <v>38.1365660427528</v>
       </c>
     </row>
     <row r="27">
@@ -982,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>81.5928073646983</v>
+        <v>80.8048699136136</v>
       </c>
       <c r="G27" t="n">
-        <v>44.0132298652351</v>
+        <v>37.2154257934482</v>
       </c>
     </row>
     <row r="28">
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>87.3806630064993</v>
+        <v>79.3657549425031</v>
       </c>
       <c r="G28" t="n">
-        <v>47.1403426601377</v>
+        <v>37.1676906946042</v>
       </c>
     </row>
     <row r="29">
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>88.4618224636086</v>
+        <v>86.0563003665575</v>
       </c>
       <c r="G29" t="n">
-        <v>47.4932555660763</v>
+        <v>41.5301686216347</v>
       </c>
     </row>
     <row r="30">
@@ -1051,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>88.2898927242422</v>
+        <v>83.9727758227907</v>
       </c>
       <c r="G30" t="n">
-        <v>48.3566537329376</v>
+        <v>40.1387406536352</v>
       </c>
     </row>
     <row r="31">
@@ -1074,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>88.6781031901496</v>
+        <v>87.0415969605736</v>
       </c>
       <c r="G31" t="n">
-        <v>48.7937718604028</v>
+        <v>41.540520891128</v>
       </c>
     </row>
     <row r="32">
@@ -1097,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>5.38848733512673</v>
+        <v>5.50351525356368</v>
       </c>
       <c r="G32" t="n">
-        <v>3.27090708152366</v>
+        <v>3.07908719386351</v>
       </c>
     </row>
     <row r="33">
@@ -1120,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>5.59804306240658</v>
+        <v>5.83030807235181</v>
       </c>
       <c r="G33" t="n">
-        <v>3.3089418718146</v>
+        <v>3.01844104284622</v>
       </c>
     </row>
     <row r="34">
@@ -1143,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>5.87251963742658</v>
+        <v>5.659767969049</v>
       </c>
       <c r="G34" t="n">
-        <v>3.46691399594377</v>
+        <v>3.05919215691152</v>
       </c>
     </row>
     <row r="35">
@@ -1166,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>5.68226151737317</v>
+        <v>5.75997379712713</v>
       </c>
       <c r="G35" t="n">
-        <v>3.49896812678683</v>
+        <v>3.28236928074358</v>
       </c>
     </row>
     <row r="36">
@@ -1189,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>5.76261517243833</v>
+        <v>5.61524324948717</v>
       </c>
       <c r="G36" t="n">
-        <v>3.41735020318926</v>
+        <v>3.17021397974898</v>
       </c>
     </row>
     <row r="37">
@@ -1212,10 +1212,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>5.46361054908694</v>
+        <v>5.79598490792577</v>
       </c>
       <c r="G37" t="n">
-        <v>3.21864561215507</v>
+        <v>3.21381735550987</v>
       </c>
     </row>
     <row r="38">
@@ -1235,10 +1235,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
         <v>7</v>
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>5.92860267461262</v>
+        <v>5.45610974393021</v>
       </c>
       <c r="G38" t="n">
-        <v>3.54626379582036</v>
+        <v>3.14970507755329</v>
       </c>
     </row>
     <row r="39">
@@ -1258,10 +1258,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>5.90253583685431</v>
+        <v>5.88194920333241</v>
       </c>
       <c r="G39" t="n">
-        <v>3.59872968214031</v>
+        <v>3.28066577560957</v>
       </c>
     </row>
     <row r="40">
@@ -1281,10 +1281,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
         <v>9</v>
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>5.73193325377215</v>
+        <v>5.73489428296966</v>
       </c>
       <c r="G40" t="n">
-        <v>3.4704000164771</v>
+        <v>3.1507540025055</v>
       </c>
     </row>
     <row r="41">
@@ -1304,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>5.87882189665306</v>
+        <v>5.87882011454223</v>
       </c>
       <c r="G41" t="n">
-        <v>3.57797148708399</v>
+        <v>3.36329238298648</v>
       </c>
     </row>
     <row r="42">
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
         <v>70</v>
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9095</v>
+        <v>0.911</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9535</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="43">
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
         <v>70</v>
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9165</v>
+        <v>0.8915</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9595</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="44">
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C44" t="n">
         <v>70</v>
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9035</v>
+        <v>0.899</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9475</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="45">
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
         <v>70</v>
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.899</v>
+        <v>0.906</v>
       </c>
       <c r="G45" t="n">
-        <v>0.949</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="46">
@@ -1419,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C46" t="n">
         <v>70</v>
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.903</v>
+        <v>0.9015</v>
       </c>
       <c r="G46" t="n">
-        <v>0.947</v>
+        <v>0.9505</v>
       </c>
     </row>
     <row r="47">
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
         <v>70</v>
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8955</v>
+        <v>0.899</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9415</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="48">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
         <v>70</v>
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.891</v>
+        <v>0.8995</v>
       </c>
       <c r="G48" t="n">
-        <v>0.942</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="49">
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
         <v>70</v>
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9045</v>
+        <v>0.8885</v>
       </c>
       <c r="G49" t="n">
-        <v>0.946</v>
+        <v>0.9435</v>
       </c>
     </row>
     <row r="50">
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
         <v>70</v>
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9035</v>
+        <v>0.8875</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9445</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="51">
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
         <v>70</v>
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9155</v>
+        <v>0.898</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9565</v>
+        <v>0.9445</v>
       </c>
     </row>
     <row r="52">
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
         <v>70</v>
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>29.3147843946086</v>
+        <v>29.5967630454156</v>
       </c>
       <c r="G52" t="n">
-        <v>26.9327056398759</v>
+        <v>26.9360821704396</v>
       </c>
     </row>
     <row r="53">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
         <v>70</v>
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>29.5106624095728</v>
+        <v>29.8321663229826</v>
       </c>
       <c r="G53" t="n">
-        <v>27.1264843358214</v>
+        <v>27.4165571616049</v>
       </c>
     </row>
     <row r="54">
@@ -1603,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" t="n">
         <v>70</v>
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>29.6438030941443</v>
+        <v>29.9383856041767</v>
       </c>
       <c r="G54" t="n">
-        <v>27.4918013061926</v>
+        <v>27.7026051821511</v>
       </c>
     </row>
     <row r="55">
@@ -1626,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C55" t="n">
         <v>70</v>
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>29.6123326718966</v>
+        <v>30.0127197123806</v>
       </c>
       <c r="G55" t="n">
-        <v>27.643179113399</v>
+        <v>27.6169251578461</v>
       </c>
     </row>
     <row r="56">
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
         <v>70</v>
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>29.5873253369024</v>
+        <v>29.9664343873968</v>
       </c>
       <c r="G56" t="n">
-        <v>27.6349285275689</v>
+        <v>27.7083230524144</v>
       </c>
     </row>
     <row r="57">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
         <v>70</v>
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>29.6888225130515</v>
+        <v>30.0179063971363</v>
       </c>
       <c r="G57" t="n">
-        <v>27.6463435703943</v>
+        <v>27.7919220767833</v>
       </c>
     </row>
     <row r="58">
@@ -1695,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" t="n">
         <v>70</v>
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>29.6734752595224</v>
+        <v>29.9136683276431</v>
       </c>
       <c r="G58" t="n">
-        <v>27.6779103651072</v>
+        <v>27.8243323703166</v>
       </c>
     </row>
     <row r="59">
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
         <v>70</v>
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>29.7400495354701</v>
+        <v>29.985978103809</v>
       </c>
       <c r="G59" t="n">
-        <v>27.7342492102449</v>
+        <v>27.897570103637</v>
       </c>
     </row>
     <row r="60">
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
         <v>70</v>
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>29.657002563159</v>
+        <v>30.1032664231863</v>
       </c>
       <c r="G60" t="n">
-        <v>27.6288350604982</v>
+        <v>27.9381254698271</v>
       </c>
     </row>
     <row r="61">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
         <v>70</v>
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>29.8790388829795</v>
+        <v>29.9451749648809</v>
       </c>
       <c r="G61" t="n">
-        <v>27.7753589343449</v>
+        <v>27.7425166267155</v>
       </c>
     </row>
     <row r="62">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
         <v>70</v>
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>70.5020504723248</v>
+        <v>71.8347114561135</v>
       </c>
       <c r="G62" t="n">
-        <v>28.9009365581474</v>
+        <v>28.077435497658</v>
       </c>
     </row>
     <row r="63">
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C63" t="n">
         <v>70</v>
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>69.1568018059286</v>
+        <v>81.1248889855431</v>
       </c>
       <c r="G63" t="n">
-        <v>27.6877949938035</v>
+        <v>32.046027774451</v>
       </c>
     </row>
     <row r="64">
@@ -1833,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>70</v>
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>77.4294010526041</v>
+        <v>80.6827451483523</v>
       </c>
       <c r="G64" t="n">
-        <v>31.9741195256663</v>
+        <v>30.3096091480132</v>
       </c>
     </row>
     <row r="65">
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
         <v>70</v>
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>79.1624432012287</v>
+        <v>80.3893059317436</v>
       </c>
       <c r="G65" t="n">
-        <v>33.2622166913035</v>
+        <v>30.8511544707207</v>
       </c>
     </row>
     <row r="66">
@@ -1879,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="n">
         <v>70</v>
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>80.9164540013692</v>
+        <v>81.1204168478209</v>
       </c>
       <c r="G66" t="n">
-        <v>33.7079794827741</v>
+        <v>32.5570346033823</v>
       </c>
     </row>
     <row r="67">
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
         <v>70</v>
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>80.0695037676207</v>
+        <v>80.8580551203151</v>
       </c>
       <c r="G67" t="n">
-        <v>34.247349972208</v>
+        <v>32.4954096883924</v>
       </c>
     </row>
     <row r="68">
@@ -1925,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C68" t="n">
         <v>70</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>85.1423916043169</v>
+        <v>83.6514566702976</v>
       </c>
       <c r="G68" t="n">
-        <v>36.2192114923492</v>
+        <v>33.3974178253235</v>
       </c>
     </row>
     <row r="69">
@@ -1948,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
         <v>70</v>
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>81.1165063969411</v>
+        <v>83.1199847421404</v>
       </c>
       <c r="G69" t="n">
-        <v>34.4890337573668</v>
+        <v>33.2687221452782</v>
       </c>
     </row>
     <row r="70">
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
         <v>70</v>
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>81.5148274777625</v>
+        <v>85.6523301434355</v>
       </c>
       <c r="G70" t="n">
-        <v>34.4907293684992</v>
+        <v>34.3210942380441</v>
       </c>
     </row>
     <row r="71">
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
         <v>70</v>
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>78.5301998741656</v>
+        <v>79.7197729955518</v>
       </c>
       <c r="G71" t="n">
-        <v>33.2035313620444</v>
+        <v>32.5275372650204</v>
       </c>
     </row>
     <row r="72">
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
         <v>70</v>
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>5.39731219840753</v>
+        <v>5.27183917855917</v>
       </c>
       <c r="G72" t="n">
-        <v>2.85535114421113</v>
+        <v>2.84326885509006</v>
       </c>
     </row>
     <row r="73">
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
         <v>70</v>
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>5.38061014220525</v>
+        <v>5.69482994111658</v>
       </c>
       <c r="G73" t="n">
-        <v>2.75194122992526</v>
+        <v>2.8549645309123</v>
       </c>
     </row>
     <row r="74">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
         <v>70</v>
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>5.46510523884205</v>
+        <v>5.96810418436591</v>
       </c>
       <c r="G74" t="n">
-        <v>2.77874035352805</v>
+        <v>2.84276628792661</v>
       </c>
     </row>
     <row r="75">
@@ -2086,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
         <v>70</v>
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>5.47319616426469</v>
+        <v>5.88599961526924</v>
       </c>
       <c r="G75" t="n">
-        <v>2.83301994063274</v>
+        <v>2.95347040703057</v>
       </c>
     </row>
     <row r="76">
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C76" t="n">
         <v>70</v>
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>5.70323045160827</v>
+        <v>5.79919730209999</v>
       </c>
       <c r="G76" t="n">
-        <v>2.98716752021537</v>
+        <v>2.96215305086465</v>
       </c>
     </row>
     <row r="77">
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C77" t="n">
         <v>70</v>
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>5.487933929874</v>
+        <v>5.52153273773951</v>
       </c>
       <c r="G77" t="n">
-        <v>2.88262744907287</v>
+        <v>3.03244284607323</v>
       </c>
     </row>
     <row r="78">
@@ -2155,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C78" t="n">
         <v>70</v>
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>5.83006656051912</v>
+        <v>5.88261641655098</v>
       </c>
       <c r="G78" t="n">
-        <v>3.04524236385411</v>
+        <v>2.96018570371151</v>
       </c>
     </row>
     <row r="79">
@@ -2178,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
         <v>70</v>
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>5.66726191763129</v>
+        <v>5.66884034439193</v>
       </c>
       <c r="G79" t="n">
-        <v>2.95778215896581</v>
+        <v>2.92644384706567</v>
       </c>
     </row>
     <row r="80">
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
         <v>70</v>
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>5.70306213848454</v>
+        <v>5.82502763184742</v>
       </c>
       <c r="G80" t="n">
-        <v>2.94513580870782</v>
+        <v>2.96026939172924</v>
       </c>
     </row>
     <row r="81">
@@ -2224,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
         <v>70</v>
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>5.49032774068397</v>
+        <v>5.57053908712591</v>
       </c>
       <c r="G81" t="n">
-        <v>2.8888293736211</v>
+        <v>2.89576051487607</v>
       </c>
     </row>
     <row r="82">
@@ -2247,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="B82" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9075</v>
+        <v>0.915</v>
       </c>
       <c r="G82" t="n">
-        <v>0.942</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="83">
@@ -2270,10 +2270,10 @@
         <v>7</v>
       </c>
       <c r="B83" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9005</v>
+        <v>0.9135</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9355</v>
+        <v>0.943</v>
       </c>
     </row>
     <row r="84">
@@ -2293,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="B84" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.902</v>
+        <v>0.9055</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9305</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="85">
@@ -2316,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="B85" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8875</v>
+        <v>0.8945</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9235</v>
+        <v>0.937</v>
       </c>
     </row>
     <row r="86">
@@ -2339,10 +2339,10 @@
         <v>7</v>
       </c>
       <c r="B86" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D86" t="n">
         <v>5</v>
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8885</v>
+        <v>0.8945</v>
       </c>
       <c r="G86" t="n">
-        <v>0.923</v>
+        <v>0.932</v>
       </c>
     </row>
     <row r="87">
@@ -2362,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="B87" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8855</v>
+        <v>0.8885</v>
       </c>
       <c r="G87" t="n">
-        <v>0.924</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="88">
@@ -2385,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="B88" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8885</v>
+        <v>0.895</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9205</v>
+        <v>0.932</v>
       </c>
     </row>
     <row r="89">
@@ -2408,10 +2408,10 @@
         <v>7</v>
       </c>
       <c r="B89" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D89" t="n">
         <v>8</v>
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8865</v>
+        <v>0.894</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9225</v>
+        <v>0.9325</v>
       </c>
     </row>
     <row r="90">
@@ -2431,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="B90" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D90" t="n">
         <v>9</v>
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8935</v>
+        <v>0.887</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9235</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="91">
@@ -2454,10 +2454,10 @@
         <v>7</v>
       </c>
       <c r="B91" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.894</v>
+        <v>0.8895</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9265</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="92">
@@ -2477,10 +2477,10 @@
         <v>7</v>
       </c>
       <c r="B92" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>28.6287529225251</v>
+        <v>29.0237248137683</v>
       </c>
       <c r="G92" t="n">
-        <v>27.5636977955879</v>
+        <v>27.2775731787691</v>
       </c>
     </row>
     <row r="93">
@@ -2500,10 +2500,10 @@
         <v>7</v>
       </c>
       <c r="B93" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>28.9125263529719</v>
+        <v>29.2374106905486</v>
       </c>
       <c r="G93" t="n">
-        <v>28.147469228781</v>
+        <v>27.7714351430676</v>
       </c>
     </row>
     <row r="94">
@@ -2523,10 +2523,10 @@
         <v>7</v>
       </c>
       <c r="B94" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>29.2590792697055</v>
+        <v>29.2735916442058</v>
       </c>
       <c r="G94" t="n">
-        <v>28.2964719909459</v>
+        <v>27.9583724233603</v>
       </c>
     </row>
     <row r="95">
@@ -2546,10 +2546,10 @@
         <v>7</v>
       </c>
       <c r="B95" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D95" t="n">
         <v>4</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>29.1461653085998</v>
+        <v>29.4234856193434</v>
       </c>
       <c r="G95" t="n">
-        <v>28.3082826006016</v>
+        <v>28.0863980025428</v>
       </c>
     </row>
     <row r="96">
@@ -2569,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="B96" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>29.1399630526537</v>
+        <v>29.3928387671737</v>
       </c>
       <c r="G96" t="n">
-        <v>28.4119782646616</v>
+        <v>28.2205410774145</v>
       </c>
     </row>
     <row r="97">
@@ -2592,10 +2592,10 @@
         <v>7</v>
       </c>
       <c r="B97" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>29.2775167084799</v>
+        <v>29.3599349287788</v>
       </c>
       <c r="G97" t="n">
-        <v>28.4677689183552</v>
+        <v>28.0594707559852</v>
       </c>
     </row>
     <row r="98">
@@ -2615,10 +2615,10 @@
         <v>7</v>
       </c>
       <c r="B98" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C98" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>29.3441558037383</v>
+        <v>29.4862987348885</v>
       </c>
       <c r="G98" t="n">
-        <v>28.6366693814801</v>
+        <v>28.313415027733</v>
       </c>
     </row>
     <row r="99">
@@ -2638,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="B99" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D99" t="n">
         <v>8</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>29.2933575843685</v>
+        <v>29.4199176944499</v>
       </c>
       <c r="G99" t="n">
-        <v>28.5906564487339</v>
+        <v>28.0523269174299</v>
       </c>
     </row>
     <row r="100">
@@ -2661,10 +2661,10 @@
         <v>7</v>
       </c>
       <c r="B100" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C100" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D100" t="n">
         <v>9</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>29.3182623910731</v>
+        <v>29.360918524848</v>
       </c>
       <c r="G100" t="n">
-        <v>28.4776430834863</v>
+        <v>28.1875167849546</v>
       </c>
     </row>
     <row r="101">
@@ -2684,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>29.2330949459111</v>
+        <v>29.3507797100542</v>
       </c>
       <c r="G101" t="n">
-        <v>28.5112902743519</v>
+        <v>28.1036726316785</v>
       </c>
     </row>
     <row r="102">
@@ -2707,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="B102" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>63.7627006955382</v>
+        <v>64.9529507844054</v>
       </c>
       <c r="G102" t="n">
-        <v>34.8650872445058</v>
+        <v>31.1814691017109</v>
       </c>
     </row>
     <row r="103">
@@ -2730,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="B103" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>72.3541462729714</v>
+        <v>72.6453837359896</v>
       </c>
       <c r="G103" t="n">
-        <v>40.1007790233363</v>
+        <v>35.6313071483517</v>
       </c>
     </row>
     <row r="104">
@@ -2753,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="B104" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C104" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D104" t="n">
         <v>3</v>
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>76.0443086728157</v>
+        <v>78.4830069713879</v>
       </c>
       <c r="G104" t="n">
-        <v>43.0850132158592</v>
+        <v>38.2472294425342</v>
       </c>
     </row>
     <row r="105">
@@ -2776,10 +2776,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C105" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>81.4756399022775</v>
+        <v>80.7419654925552</v>
       </c>
       <c r="G105" t="n">
-        <v>45.9814306019562</v>
+        <v>39.9638632301325</v>
       </c>
     </row>
     <row r="106">
@@ -2799,10 +2799,10 @@
         <v>7</v>
       </c>
       <c r="B106" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>84.4071194309074</v>
+        <v>86.708201452409</v>
       </c>
       <c r="G106" t="n">
-        <v>47.7887634980773</v>
+        <v>44.0690290967766</v>
       </c>
     </row>
     <row r="107">
@@ -2822,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="B107" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>82.9945589282012</v>
+        <v>87.7782001674034</v>
       </c>
       <c r="G107" t="n">
-        <v>46.8189532934403</v>
+        <v>44.6479562527479</v>
       </c>
     </row>
     <row r="108">
@@ -2845,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="B108" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D108" t="n">
         <v>7</v>
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>85.4421636605101</v>
+        <v>87.8065963487224</v>
       </c>
       <c r="G108" t="n">
-        <v>49.1939024052462</v>
+        <v>44.4545428826184</v>
       </c>
     </row>
     <row r="109">
@@ -2868,10 +2868,10 @@
         <v>7</v>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D109" t="n">
         <v>8</v>
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>83.9516069631503</v>
+        <v>82.4647731116922</v>
       </c>
       <c r="G109" t="n">
-        <v>47.906930163608</v>
+        <v>42.3399503296955</v>
       </c>
     </row>
     <row r="110">
@@ -2891,10 +2891,10 @@
         <v>7</v>
       </c>
       <c r="B110" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C110" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D110" t="n">
         <v>9</v>
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>81.9225044305456</v>
+        <v>89.329162750696</v>
       </c>
       <c r="G110" t="n">
-        <v>46.5617055056159</v>
+        <v>44.8280948772219</v>
       </c>
     </row>
     <row r="111">
@@ -2914,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="B111" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>80.8465726318235</v>
+        <v>86.0443159850095</v>
       </c>
       <c r="G111" t="n">
-        <v>46.4702508238186</v>
+        <v>43.5890137802576</v>
       </c>
     </row>
     <row r="112">
@@ -2937,10 +2937,10 @@
         <v>7</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>5.06687145839511</v>
+        <v>5.04521216741332</v>
       </c>
       <c r="G112" t="n">
-        <v>3.28347530004882</v>
+        <v>3.05768365335885</v>
       </c>
     </row>
     <row r="113">
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="B113" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C113" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>5.42394915668987</v>
+        <v>5.41278501135787</v>
       </c>
       <c r="G113" t="n">
-        <v>3.42254742650608</v>
+        <v>3.14422405244195</v>
       </c>
     </row>
     <row r="114">
@@ -2983,10 +2983,10 @@
         <v>7</v>
       </c>
       <c r="B114" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C114" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D114" t="n">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>5.46599578997782</v>
+        <v>5.5226464113803</v>
       </c>
       <c r="G114" t="n">
-        <v>3.42083127797975</v>
+        <v>3.03775913885441</v>
       </c>
     </row>
     <row r="115">
@@ -3006,10 +3006,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C115" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>5.63770805202214</v>
+        <v>5.51112394891045</v>
       </c>
       <c r="G115" t="n">
-        <v>3.5051684764924</v>
+        <v>3.19266243034449</v>
       </c>
     </row>
     <row r="116">
@@ -3029,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="B116" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>5.68973401130058</v>
+        <v>5.63272862765727</v>
       </c>
       <c r="G116" t="n">
-        <v>3.56439482339545</v>
+        <v>3.37264644843474</v>
       </c>
     </row>
     <row r="117">
@@ -3052,10 +3052,10 @@
         <v>7</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D117" t="n">
         <v>6</v>
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>5.76836521522138</v>
+        <v>5.79613486247909</v>
       </c>
       <c r="G117" t="n">
-        <v>3.51488626132056</v>
+        <v>3.39243592003723</v>
       </c>
     </row>
     <row r="118">
@@ -3075,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="B118" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C118" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D118" t="n">
         <v>7</v>
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>5.81146077583688</v>
+        <v>5.82947932830533</v>
       </c>
       <c r="G118" t="n">
-        <v>3.55658331204283</v>
+        <v>3.31474855111101</v>
       </c>
     </row>
     <row r="119">
@@ -3098,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="B119" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>5.49367181755414</v>
+        <v>5.45383596353537</v>
       </c>
       <c r="G119" t="n">
-        <v>3.67798492106899</v>
+        <v>3.28982706200073</v>
       </c>
     </row>
     <row r="120">
@@ -3121,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="B120" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D120" t="n">
         <v>9</v>
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>5.58505277568073</v>
+        <v>5.68213447625856</v>
       </c>
       <c r="G120" t="n">
-        <v>3.63374376688609</v>
+        <v>3.26329628523794</v>
       </c>
     </row>
     <row r="121">
@@ -3144,10 +3144,10 @@
         <v>7</v>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C121" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>5.5478661318669</v>
+        <v>5.7172720372982</v>
       </c>
       <c r="G121" t="n">
-        <v>3.46758975740996</v>
+        <v>3.20194252489752</v>
       </c>
     </row>
     <row r="122">
@@ -3167,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C122" t="n">
         <v>70</v>
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9245</v>
+        <v>0.912</v>
       </c>
       <c r="G122" t="n">
-        <v>0.96</v>
+        <v>0.9555</v>
       </c>
     </row>
     <row r="123">
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C123" t="n">
         <v>70</v>
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9095</v>
+        <v>0.9055</v>
       </c>
       <c r="G123" t="n">
-        <v>0.958</v>
+        <v>0.9515</v>
       </c>
     </row>
     <row r="124">
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C124" t="n">
         <v>70</v>
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9185</v>
+        <v>0.91</v>
       </c>
       <c r="G124" t="n">
-        <v>0.958</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="125">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C125" t="n">
         <v>70</v>
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9225</v>
+        <v>0.912</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9595</v>
+        <v>0.9515</v>
       </c>
     </row>
     <row r="126">
@@ -3259,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="B126" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C126" t="n">
         <v>70</v>
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.91</v>
+        <v>0.892</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9535</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="127">
@@ -3282,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C127" t="n">
         <v>70</v>
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.911</v>
+        <v>0.8975</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9525</v>
+        <v>0.9505</v>
       </c>
     </row>
     <row r="128">
@@ -3305,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C128" t="n">
         <v>70</v>
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9065</v>
+        <v>0.8965</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9505</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="129">
@@ -3328,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C129" t="n">
         <v>70</v>
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8955</v>
+        <v>0.9065</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9475</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="130">
@@ -3351,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="B130" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C130" t="n">
         <v>70</v>
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8985</v>
+        <v>0.9065</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9435</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="131">
@@ -3374,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="B131" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C131" t="n">
         <v>70</v>
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9055</v>
+        <v>0.911</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9495</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="132">
@@ -3397,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="B132" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C132" t="n">
         <v>70</v>
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>29.5840787776874</v>
+        <v>29.2887250377095</v>
       </c>
       <c r="G132" t="n">
-        <v>27.2681362558696</v>
+        <v>26.7416447293192</v>
       </c>
     </row>
     <row r="133">
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="B133" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C133" t="n">
         <v>70</v>
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>29.7543431683925</v>
+        <v>29.6727169439048</v>
       </c>
       <c r="G133" t="n">
-        <v>27.7638292787549</v>
+        <v>27.4039622076843</v>
       </c>
     </row>
     <row r="134">
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="B134" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C134" t="n">
         <v>70</v>
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>29.8438910027447</v>
+        <v>29.7375336228675</v>
       </c>
       <c r="G134" t="n">
-        <v>27.9013025939244</v>
+        <v>27.6000638408354</v>
       </c>
     </row>
     <row r="135">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C135" t="n">
         <v>70</v>
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>29.9476634371638</v>
+        <v>29.8149278905435</v>
       </c>
       <c r="G135" t="n">
-        <v>27.9925830152649</v>
+        <v>27.5915887422492</v>
       </c>
     </row>
     <row r="136">
@@ -3489,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C136" t="n">
         <v>70</v>
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>30.0983690144281</v>
+        <v>29.7417047915456</v>
       </c>
       <c r="G136" t="n">
-        <v>28.0696832650555</v>
+        <v>27.7714426074171</v>
       </c>
     </row>
     <row r="137">
@@ -3512,7 +3512,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C137" t="n">
         <v>70</v>
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>30.1288574396853</v>
+        <v>29.6801047890038</v>
       </c>
       <c r="G137" t="n">
-        <v>28.0886173839423</v>
+        <v>27.74643955299</v>
       </c>
     </row>
     <row r="138">
@@ -3535,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C138" t="n">
         <v>70</v>
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>29.99619599404</v>
+        <v>29.7174110979666</v>
       </c>
       <c r="G138" t="n">
-        <v>28.06588560005</v>
+        <v>27.6858320255673</v>
       </c>
     </row>
     <row r="139">
@@ -3558,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="B139" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C139" t="n">
         <v>70</v>
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>29.9426871277976</v>
+        <v>29.6217291026252</v>
       </c>
       <c r="G139" t="n">
-        <v>28.1179151936047</v>
+        <v>27.6956489771832</v>
       </c>
     </row>
     <row r="140">
@@ -3581,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C140" t="n">
         <v>70</v>
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>30.039818222937</v>
+        <v>29.9102623222381</v>
       </c>
       <c r="G140" t="n">
-        <v>28.0474477295697</v>
+        <v>27.9503752961135</v>
       </c>
     </row>
     <row r="141">
@@ -3604,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="B141" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C141" t="n">
         <v>70</v>
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>29.9765367819938</v>
+        <v>29.9182944179287</v>
       </c>
       <c r="G141" t="n">
-        <v>28.1071173103306</v>
+        <v>27.6592649547763</v>
       </c>
     </row>
     <row r="142">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="B142" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C142" t="n">
         <v>70</v>
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>64.2065633615962</v>
+        <v>68.7621649996594</v>
       </c>
       <c r="G142" t="n">
-        <v>27.5101189869979</v>
+        <v>27.8681251402425</v>
       </c>
     </row>
     <row r="143">
@@ -3650,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="B143" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C143" t="n">
         <v>70</v>
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>74.0849483473717</v>
+        <v>72.9718252185712</v>
       </c>
       <c r="G143" t="n">
-        <v>32.5223918580717</v>
+        <v>29.3766536706781</v>
       </c>
     </row>
     <row r="144">
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C144" t="n">
         <v>70</v>
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>71.420333128156</v>
+        <v>79.9025811137007</v>
       </c>
       <c r="G144" t="n">
-        <v>30.9633134895252</v>
+        <v>32.1184193320203</v>
       </c>
     </row>
     <row r="145">
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="B145" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C145" t="n">
         <v>70</v>
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>73.6407672394036</v>
+        <v>77.372266814361</v>
       </c>
       <c r="G145" t="n">
-        <v>31.8480218391807</v>
+        <v>32.7379451636404</v>
       </c>
     </row>
     <row r="146">
@@ -3719,7 +3719,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C146" t="n">
         <v>70</v>
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>81.692396049999</v>
+        <v>82.9366021904085</v>
       </c>
       <c r="G146" t="n">
-        <v>36.2242967791822</v>
+        <v>35.7559391372373</v>
       </c>
     </row>
     <row r="147">
@@ -3742,7 +3742,7 @@
         <v>7</v>
       </c>
       <c r="B147" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
         <v>70</v>
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>79.2944143312221</v>
+        <v>85.6741716477743</v>
       </c>
       <c r="G147" t="n">
-        <v>34.8040088616513</v>
+        <v>36.9437425025331</v>
       </c>
     </row>
     <row r="148">
@@ -3765,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C148" t="n">
         <v>70</v>
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>80.3996477557609</v>
+        <v>82.2985382844104</v>
       </c>
       <c r="G148" t="n">
-        <v>35.7711430587203</v>
+        <v>35.1253676387342</v>
       </c>
     </row>
     <row r="149">
@@ -3788,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C149" t="n">
         <v>70</v>
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>82.6711603011816</v>
+        <v>81.907055405784</v>
       </c>
       <c r="G149" t="n">
-        <v>37.1612707322646</v>
+        <v>35.2985097360326</v>
       </c>
     </row>
     <row r="150">
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="B150" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C150" t="n">
         <v>70</v>
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>85.7153992000119</v>
+        <v>83.8534434579886</v>
       </c>
       <c r="G150" t="n">
-        <v>39.0071495138492</v>
+        <v>36.5316869819147</v>
       </c>
     </row>
     <row r="151">
@@ -3834,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C151" t="n">
         <v>70</v>
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>82.4942957547249</v>
+        <v>79.6411993615601</v>
       </c>
       <c r="G151" t="n">
-        <v>35.6013982950655</v>
+        <v>34.3088533062876</v>
       </c>
     </row>
     <row r="152">
@@ -3857,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="B152" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C152" t="n">
         <v>70</v>
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>5.06608765542902</v>
+        <v>5.30575055872026</v>
       </c>
       <c r="G152" t="n">
-        <v>2.89746301222981</v>
+        <v>2.81634745216993</v>
       </c>
     </row>
     <row r="153">
@@ -3880,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="B153" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C153" t="n">
         <v>70</v>
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>5.24927186811245</v>
+        <v>5.53999220429471</v>
       </c>
       <c r="G153" t="n">
-        <v>2.9515433390218</v>
+        <v>2.89088339815981</v>
       </c>
     </row>
     <row r="154">
@@ -3903,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="B154" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C154" t="n">
         <v>70</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>5.40833611362786</v>
+        <v>5.76028254599396</v>
       </c>
       <c r="G154" t="n">
-        <v>2.84270648459457</v>
+        <v>2.96991985731011</v>
       </c>
     </row>
     <row r="155">
@@ -3926,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="B155" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C155" t="n">
         <v>70</v>
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>5.54169772874347</v>
+        <v>5.51636940698718</v>
       </c>
       <c r="G155" t="n">
-        <v>2.91118750132613</v>
+        <v>2.87538963323116</v>
       </c>
     </row>
     <row r="156">
@@ -3949,7 +3949,7 @@
         <v>7</v>
       </c>
       <c r="B156" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C156" t="n">
         <v>70</v>
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>5.91214887170978</v>
+        <v>5.40918343607354</v>
       </c>
       <c r="G156" t="n">
-        <v>3.05375303105304</v>
+        <v>2.96147256446076</v>
       </c>
     </row>
     <row r="157">
@@ -3972,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="B157" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C157" t="n">
         <v>70</v>
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>5.39615374941147</v>
+        <v>5.76391180357558</v>
       </c>
       <c r="G157" t="n">
-        <v>2.92032077340967</v>
+        <v>3.05114964485878</v>
       </c>
     </row>
     <row r="158">
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="B158" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C158" t="n">
         <v>70</v>
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>5.46927588410816</v>
+        <v>5.47855278921884</v>
       </c>
       <c r="G158" t="n">
-        <v>2.94591011465055</v>
+        <v>2.99478376629157</v>
       </c>
     </row>
     <row r="159">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="B159" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C159" t="n">
         <v>70</v>
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>5.61995577705413</v>
+        <v>5.58588358385083</v>
       </c>
       <c r="G159" t="n">
-        <v>2.9988446943269</v>
+        <v>2.9950723960674</v>
       </c>
     </row>
     <row r="160">
@@ -4041,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B160" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C160" t="n">
         <v>70</v>
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>5.71563393870481</v>
+        <v>5.51996576218271</v>
       </c>
       <c r="G160" t="n">
-        <v>3.03190623502131</v>
+        <v>2.86007235174915</v>
       </c>
     </row>
     <row r="161">
@@ -4064,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="B161" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C161" t="n">
         <v>70</v>
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>5.85473416337159</v>
+        <v>5.6806962185394</v>
       </c>
       <c r="G161" t="n">
-        <v>3.07504527271027</v>
+        <v>2.95890358809664</v>
       </c>
     </row>
   </sheetData>
